--- a/src/Agents.xlsx
+++ b/src/Agents.xlsx
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9001</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
